--- a/data/agility/hofor_agility.xlsx
+++ b/data/agility/hofor_agility.xlsx
@@ -7,206 +7,126 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Volume &amp; Quality" sheetId="1" r:id="rId1"/>
-    <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
-    <sheet name="Top Archetypes" sheetId="3" r:id="rId3"/>
-    <sheet name="Key Topics" sheetId="4" r:id="rId4"/>
-    <sheet name="Topics per Archetype" sheetId="5" r:id="rId5"/>
-    <sheet name="Raw Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="168">
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>17/100</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Positive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="171">
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Media Outlet</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Snippet</t>
+  </si>
+  <si>
+    <t>UVM (Insights by Similarweb)</t>
+  </si>
+  <si>
+    <t>Journalist Shares</t>
+  </si>
+  <si>
+    <t>Journalist Reach</t>
+  </si>
+  <si>
+    <t>Total Engagement</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Media Outlet City</t>
+  </si>
+  <si>
+    <t>Media Outlet Region</t>
+  </si>
+  <si>
+    <t>Media Outlet Country</t>
+  </si>
+  <si>
+    <t>Advertising Value Equivalency</t>
+  </si>
+  <si>
+    <t>Domain Authority (provided by Moz)</t>
+  </si>
+  <si>
+    <t>Pitch Placement</t>
+  </si>
+  <si>
+    <t>Headline</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Contextual Snippet</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>AVE(USD)</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Maintext</t>
+  </si>
+  <si>
+    <t>Publication_Date</t>
+  </si>
+  <si>
+    <t>Full_Title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Topics_Sentiments</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>Sentiment 1</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>Sentiment 2</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>Sentiment 3</t>
   </si>
   <si>
     <t>Top Archetype</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>The Guardian</t>
-  </si>
-  <si>
-    <t>The Eco Warrior</t>
-  </si>
-  <si>
-    <t>The Nurturer</t>
-  </si>
-  <si>
-    <t>Parsing Error</t>
-  </si>
-  <si>
-    <t>The Principled</t>
-  </si>
-  <si>
-    <t>The Technologist</t>
-  </si>
-  <si>
-    <t>Topic Cluster</t>
-  </si>
-  <si>
-    <t>No Topic</t>
-  </si>
-  <si>
-    <t>Flooding and Storm Events</t>
-  </si>
-  <si>
-    <t>Water Quality Issues</t>
-  </si>
-  <si>
-    <t>Safety Warnings and Health Risks</t>
-  </si>
-  <si>
-    <t>Leadership and Employment Issues</t>
-  </si>
-  <si>
-    <t>Environmental Concerns</t>
-  </si>
-  <si>
-    <t>Weather and Natural Disasters</t>
-  </si>
-  <si>
-    <t>Infrastructure and Technology in Water Management</t>
-  </si>
-  <si>
-    <t>Sports and Community Events</t>
-  </si>
-  <si>
-    <t>Public Health and Safety</t>
-  </si>
-  <si>
-    <t>Archetype</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Media Outlet</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Snippet</t>
-  </si>
-  <si>
-    <t>UVM (Insights by Similarweb)</t>
-  </si>
-  <si>
-    <t>Journalist Shares</t>
-  </si>
-  <si>
-    <t>Journalist Reach</t>
-  </si>
-  <si>
-    <t>Total Engagement</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Media Outlet City</t>
-  </si>
-  <si>
-    <t>Media Outlet Region</t>
-  </si>
-  <si>
-    <t>Media Outlet Country</t>
-  </si>
-  <si>
-    <t>Advertising Value Equivalency</t>
-  </si>
-  <si>
-    <t>Domain Authority (provided by Moz)</t>
-  </si>
-  <si>
-    <t>Pitch Placement</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Contextual Snippet</t>
-  </si>
-  <si>
-    <t>Impressions</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>AVE(USD)</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Maintext</t>
-  </si>
-  <si>
-    <t>Publication_Date</t>
-  </si>
-  <si>
-    <t>Full_Title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Topics_Sentiments</t>
-  </si>
-  <si>
-    <t>Topic 1</t>
-  </si>
-  <si>
-    <t>Sentiment 1</t>
-  </si>
-  <si>
-    <t>Topic 2</t>
-  </si>
-  <si>
-    <t>Sentiment 2</t>
-  </si>
-  <si>
-    <t>Topic 3</t>
-  </si>
-  <si>
-    <t>Sentiment 3</t>
-  </si>
-  <si>
     <t>Cluster_Topic2</t>
   </si>
   <si>
@@ -214,6 +134,33 @@
   </si>
   <si>
     <t>Cluster_Topic3</t>
+  </si>
+  <si>
+    <t>query_occurrences</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_100</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_200</t>
+  </si>
+  <si>
+    <t>term_in_title</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Log_Rank</t>
+  </si>
+  <si>
+    <t>Quality_Score</t>
+  </si>
+  <si>
+    <t>BMQ</t>
   </si>
   <si>
     <t>Meet the Mayors: Line Barfod (Enhedslisten in Copenhagen) Local elections special</t>
@@ -402,6 +349,15 @@
   <si>
     <t>Det skriver Hovedstadens forsyningsselskab Hofor i en pressemeddelelse.
 Forsyningsselskabet skriver, at det er gået i gang med at kontrollere kloakdækslerne. Hofor advarer også imod direkte kontakt med spildevandet, da det indeholder en lang række bakterier, der kan give alvorlige sygdomme.</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
   <si>
     <t>Copenhagen</t>
@@ -770,9 +726,6 @@
     <t>Hofor kommer med advarsel efter skybrud</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>It seems there was no news article provided. Please share a news article or text for me to analyze, and I will extract the key topics and assess their sentiment accordingly.</t>
   </si>
   <si>
@@ -897,6 +850,57 @@
 Sentiment 2: Positive  
 Topic 3: Oversvømmelser i Taiwan og Grækenland  
 Sentiment 3: Negative  </t>
+  </si>
+  <si>
+    <t>Parsing Error</t>
+  </si>
+  <si>
+    <t>The Nurturer</t>
+  </si>
+  <si>
+    <t>The Guardian</t>
+  </si>
+  <si>
+    <t>The Eco Warrior</t>
+  </si>
+  <si>
+    <t>The Principled</t>
+  </si>
+  <si>
+    <t>The Technologist</t>
+  </si>
+  <si>
+    <t>No Topic</t>
+  </si>
+  <si>
+    <t>Flooding and Storm Events</t>
+  </si>
+  <si>
+    <t>Water Quality Issues</t>
+  </si>
+  <si>
+    <t>Environmental Concerns</t>
+  </si>
+  <si>
+    <t>Safety Warnings and Health Risks</t>
+  </si>
+  <si>
+    <t>Sports and Community Events</t>
+  </si>
+  <si>
+    <t>Leadership and Employment Issues</t>
+  </si>
+  <si>
+    <t>Weather and Natural Disasters</t>
+  </si>
+  <si>
+    <t>Infrastructure and Technology in Water Management</t>
+  </si>
+  <si>
+    <t>Public Health and Safety</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1271,565 +1275,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AW18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>76.5</v>
-      </c>
-      <c r="B2">
-        <v>17.6</v>
-      </c>
-      <c r="C2">
-        <v>5.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>29.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>12.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>46.7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>13.3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>66.7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>33.3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>33.3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>33.3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>33.3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3">
         <v>45949.875</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>95158</v>
@@ -1844,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O2">
         <v>880.21</v>
@@ -1862,63 +1477,87 @@
         <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T2" s="3">
         <v>45949</v>
       </c>
       <c r="U2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="V2">
         <v>95158</v>
       </c>
       <c r="W2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X2">
         <v>880.21</v>
       </c>
       <c r="Y2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AD2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AK2" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="AL2" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AM2" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT2">
+        <v>21178</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0.3648160955009688</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3">
         <v>45948.68060185185</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>728754</v>
@@ -1933,13 +1572,13 @@
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O3">
         <v>6740.97</v>
@@ -1948,84 +1587,111 @@
         <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="T3" s="3">
         <v>45948</v>
       </c>
       <c r="U3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="V3">
         <v>728754</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X3">
         <v>6740.97</v>
       </c>
       <c r="Y3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AA3" s="3">
         <v>45948.83174768519</v>
       </c>
       <c r="AB3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AC3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AD3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AK3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="AL3" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT3">
+        <v>37512</v>
+      </c>
+      <c r="AU3">
+        <v>0.8498</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.3570571806334127</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3">
         <v>45935.67700231481</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>1634874</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O4">
         <v>15122.58</v>
@@ -2034,96 +1700,123 @@
         <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="T4" s="3">
         <v>45935</v>
       </c>
       <c r="U4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="V4">
         <v>1634874</v>
       </c>
       <c r="W4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X4">
         <v>15122.58</v>
       </c>
       <c r="Y4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="3">
         <v>45935.77865740741</v>
       </c>
       <c r="AB4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AF4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO4">
         <v>2</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT4">
+        <v>30853</v>
+      </c>
+      <c r="AU4">
+        <v>0.762</v>
+      </c>
+      <c r="AV4">
         <v>2</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>18</v>
+      <c r="AW4">
+        <v>0.5356582180486676</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3">
         <v>45935.61523148148</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <v>1634874</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O5">
         <v>15122.58</v>
@@ -2132,75 +1825,102 @@
         <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="T5" s="3">
         <v>45935</v>
       </c>
       <c r="U5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="V5">
         <v>1634874</v>
       </c>
       <c r="W5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X5">
         <v>15122.58</v>
       </c>
       <c r="Y5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="3">
         <v>45935.77865740741</v>
       </c>
       <c r="AB5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO5">
         <v>2</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AP5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT5">
+        <v>30853</v>
+      </c>
+      <c r="AU5">
+        <v>0.6995999999999999</v>
+      </c>
+      <c r="AV5">
         <v>2</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>18</v>
+      <c r="AW5">
+        <v>0.5356582180486676</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3">
         <v>45933.39027777778</v>
@@ -2209,13 +1929,13 @@
         <v>3122304</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O6">
         <v>28881.31</v>
@@ -2224,10 +1944,10 @@
         <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="T6" s="3">
         <v>45933</v>
@@ -2236,72 +1956,99 @@
         <v>3122304</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X6">
         <v>28881.31</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="3">
         <v>45933.55694444444</v>
       </c>
       <c r="AB6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AK6" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="AL6" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT6">
+        <v>21206</v>
+      </c>
+      <c r="AU6">
+        <v>0.6513</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>0.6147981638415243</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3">
         <v>45931.62655092592</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>303692</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O7">
         <v>2809.15</v>
@@ -2310,96 +2057,123 @@
         <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="T7" s="3">
         <v>45931</v>
       </c>
       <c r="U7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="V7">
         <v>303692</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X7">
         <v>2809.15</v>
       </c>
       <c r="Y7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA7" s="3">
         <v>45931.7932175926</v>
       </c>
       <c r="AB7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="AC7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="AF7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT7">
+        <v>14688</v>
+      </c>
+      <c r="AU7">
+        <v>0.6118</v>
+      </c>
+      <c r="AV7">
         <v>2</v>
       </c>
-      <c r="AH7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>20</v>
+      <c r="AW7">
+        <v>0.4947824167544635</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>45883.08333333334</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>935122</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O8">
         <v>8649.879999999999</v>
@@ -2408,96 +2182,123 @@
         <v>82</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="T8" s="3">
         <v>45883</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="V8">
         <v>935122</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X8">
         <v>8649.879999999999</v>
       </c>
       <c r="Y8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AA8" s="3">
         <v>45883.25</v>
       </c>
       <c r="AB8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AD8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AF8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT8">
+        <v>24461</v>
+      </c>
+      <c r="AU8">
+        <v>0.5784</v>
+      </c>
+      <c r="AV8">
         <v>2</v>
       </c>
-      <c r="AH8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>19</v>
+      <c r="AW8">
+        <v>0.4878601810115328</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3">
         <v>45928.64582175926</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G9">
         <v>303692</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O9">
         <v>2809.15</v>
@@ -2506,81 +2307,108 @@
         <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="T9" s="3">
         <v>45928</v>
       </c>
       <c r="U9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="V9">
         <v>303692</v>
       </c>
       <c r="W9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X9">
         <v>2809.15</v>
       </c>
       <c r="Y9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="3">
         <v>45928.81248842592</v>
       </c>
       <c r="AB9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AD9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="AH9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO9">
+        <v>3</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT9">
+        <v>14688</v>
+      </c>
+      <c r="AU9">
+        <v>0.5494</v>
+      </c>
+      <c r="AV9">
         <v>2</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>19</v>
+      <c r="AW9">
+        <v>0.5755342936222522</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>45872.31606481481</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <v>1634874</v>
@@ -2595,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O10">
         <v>15122.58</v>
@@ -2610,93 +2438,120 @@
         <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="T10" s="3">
         <v>45872</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="V10">
         <v>1634874</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X10">
         <v>15122.58</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="3">
         <v>45872.47539351852</v>
       </c>
       <c r="AB10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AD10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="AH10" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="AL10" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="AM10" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="AN10" t="s">
-        <v>21</v>
+        <v>167</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT10">
+        <v>30853</v>
+      </c>
+      <c r="AU10">
+        <v>0.5239</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0.3597094562760411</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3">
         <v>45872.26613425926</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>1173924</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O11">
         <v>10858.8</v>
@@ -2705,96 +2560,123 @@
         <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="T11" s="3">
         <v>45872</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="V11">
         <v>1173924</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X11">
         <v>10858.8</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AA11" s="3">
         <v>45872.43280092593</v>
       </c>
       <c r="AB11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AD11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT11">
+        <v>40186</v>
+      </c>
+      <c r="AU11">
+        <v>0.5011</v>
+      </c>
+      <c r="AV11">
         <v>2</v>
       </c>
-      <c r="AH11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>17</v>
+      <c r="AW11">
+        <v>0.4811226631278954</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3">
         <v>45871.53559027778</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1173924</v>
       </c>
       <c r="K12" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O12">
         <v>10858.8</v>
@@ -2803,96 +2685,123 @@
         <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="T12" s="3">
         <v>45871</v>
       </c>
       <c r="U12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="V12">
         <v>1173924</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X12">
         <v>10858.8</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AA12" s="3">
         <v>45871.70225694445</v>
       </c>
       <c r="AB12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AD12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM12" t="s">
         <v>161</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AN12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO12">
         <v>2</v>
       </c>
-      <c r="AH12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AP12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT12">
+        <v>40186</v>
+      </c>
+      <c r="AU12">
+        <v>0.4804</v>
+      </c>
+      <c r="AV12">
         <v>2</v>
       </c>
-      <c r="AK12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>24</v>
+      <c r="AW12">
+        <v>0.5320714249005219</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="3">
         <v>45871.68300925926</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G13">
         <v>1173924</v>
       </c>
       <c r="K13" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O13">
         <v>10858.8</v>
@@ -2901,96 +2810,123 @@
         <v>69</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="T13" s="3">
         <v>45871</v>
       </c>
       <c r="U13" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="V13">
         <v>1173924</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X13">
         <v>10858.8</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA13" s="3">
         <v>45871.84967592593</v>
       </c>
       <c r="AB13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AD13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT13">
+        <v>40186</v>
+      </c>
+      <c r="AU13">
+        <v>0.4616</v>
+      </c>
+      <c r="AV13">
         <v>2</v>
       </c>
-      <c r="AH13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>21</v>
+      <c r="AW13">
+        <v>0.4811226631278954</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3">
         <v>45871.50835648148</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G14">
         <v>1634874</v>
       </c>
       <c r="K14" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O14">
         <v>15122.58</v>
@@ -2999,93 +2935,120 @@
         <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="T14" s="3">
         <v>45871</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="V14">
         <v>1634874</v>
       </c>
       <c r="W14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X14">
         <v>15122.58</v>
       </c>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="AA14" s="3">
         <v>45871.6727662037</v>
       </c>
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="AD14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT14">
+        <v>30853</v>
+      </c>
+      <c r="AU14">
+        <v>0.4442</v>
+      </c>
+      <c r="AV14">
         <v>2</v>
       </c>
-      <c r="AH14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>18</v>
+      <c r="AW14">
+        <v>0.5866069798212942</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3">
         <v>45871.47829861111</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G15">
         <v>1173924</v>
       </c>
       <c r="K15" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O15">
         <v>10858.8</v>
@@ -3094,96 +3057,123 @@
         <v>69</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="T15" s="3">
         <v>45871</v>
       </c>
       <c r="U15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="V15">
         <v>1173924</v>
       </c>
       <c r="W15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X15">
         <v>10858.8</v>
       </c>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AA15" s="3">
         <v>45871.64496527778</v>
       </c>
       <c r="AB15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AC15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AD15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO15">
         <v>2</v>
       </c>
-      <c r="AH15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>23</v>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT15">
+        <v>40186</v>
+      </c>
+      <c r="AU15">
+        <v>0.4282</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>0.4070714249005219</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3">
         <v>45871.47638888889</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G16">
         <v>935122</v>
       </c>
       <c r="K16" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O16">
         <v>8649.879999999999</v>
@@ -3192,75 +3182,102 @@
         <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="S16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="T16" s="3">
         <v>45871</v>
       </c>
       <c r="U16" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="V16">
         <v>935122</v>
       </c>
       <c r="W16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X16">
         <v>8649.879999999999</v>
       </c>
       <c r="Y16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z16" t="s">
         <v>131</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>144</v>
       </c>
       <c r="AA16" s="3">
         <v>45860.625</v>
       </c>
       <c r="AB16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AD16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s">
         <v>165</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AM16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO16">
         <v>2</v>
       </c>
-      <c r="AH16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>18</v>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT16">
+        <v>24461</v>
+      </c>
+      <c r="AU16">
+        <v>0.4132</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>0.4138089427841594</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3">
         <v>45871.48017361111</v>
@@ -3269,13 +3286,13 @@
         <v>3122304</v>
       </c>
       <c r="K17" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O17">
         <v>28881.31</v>
@@ -3284,10 +3301,10 @@
         <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="S17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="T17" s="3">
         <v>45871</v>
@@ -3296,78 +3313,105 @@
         <v>3122304</v>
       </c>
       <c r="W17" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X17">
         <v>28881.31</v>
       </c>
       <c r="Y17" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z17" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AA17" s="3">
         <v>45871.64684027778</v>
       </c>
       <c r="AB17" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AD17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL17" t="s">
         <v>166</v>
       </c>
-      <c r="AF17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AM17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT17">
+        <v>21206</v>
+      </c>
+      <c r="AU17">
+        <v>0.3992</v>
+      </c>
+      <c r="AV17">
         <v>3</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>19</v>
+      <c r="AW17">
+        <v>0.6147981638415243</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E18" s="3">
         <v>45870.95833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>3122304</v>
       </c>
       <c r="K18" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O18">
         <v>28881.31</v>
@@ -3376,64 +3420,91 @@
         <v>75</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="S18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="T18" s="3">
         <v>45870</v>
       </c>
       <c r="U18" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="V18">
         <v>3122304</v>
       </c>
       <c r="W18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X18">
         <v>28881.31</v>
       </c>
       <c r="Y18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AA18" s="3">
         <v>45872.3653587963</v>
       </c>
       <c r="AB18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AC18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AD18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL18" t="s">
         <v>167</v>
       </c>
-      <c r="AF18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>21</v>
-      </c>
       <c r="AM18" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AN18" t="s">
-        <v>16</v>
+        <v>161</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT18">
+        <v>723440</v>
+      </c>
+      <c r="AU18">
+        <v>0.3861</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0.3168936713177145</v>
       </c>
     </row>
   </sheetData>

--- a/data/agility/hofor_agility.xlsx
+++ b/data/agility/hofor_agility.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Gijos\EB Scraping\Dashboard\data\agility\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173205D7-2FDF-4FC5-B013-5A6C7FB3D3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
   <si>
     <t>Article</t>
   </si>
@@ -163,12 +169,6 @@
     <t>BMQ</t>
   </si>
   <si>
-    <t>Meet the Mayors: Line Barfod (Enhedslisten in Copenhagen) Local elections special</t>
-  </si>
-  <si>
-    <t>Når børn reagerer i skolen: Adfærd er et signal – ikke et karakterbrist | Berlingske</t>
-  </si>
-  <si>
     <t>Klamt badevand i København: Skyldes hårdt belastede kloakker</t>
   </si>
   <si>
@@ -211,12 +211,6 @@
     <t>Portugal i rød alarm - høje temperaturer forværrer risiko for skovbrande</t>
   </si>
   <si>
-    <t>https://cphpost.dk/2025-10-20/news/politics/meet-the-mayors-line-barfod-enhedslisten-in-copenhagen-local-elections-special/</t>
-  </si>
-  <si>
-    <t>https://www.berlingske.dk/laesere/naar-boern-reagerer-i-skolen-adfaerd-er-et-signal--ikke-et-karakterbrist</t>
-  </si>
-  <si>
     <t>https://ekstrabladet.dk/nyheder/trafikogvejr/klamt-badevand-i-koebenhavn-skyldes-haardt-belastede-kloakker/10968002</t>
   </si>
   <si>
@@ -274,12 +268,6 @@
     <t>Anton Dahl Andersen</t>
   </si>
   <si>
-    <t>The Copenhagen Post</t>
-  </si>
-  <si>
-    <t>Berlingske</t>
-  </si>
-  <si>
     <t>Ekstra Bladet</t>
   </si>
   <si>
@@ -293,14 +281,6 @@
   </si>
   <si>
     <t>B.T.</t>
-  </si>
-  <si>
-    <t>She is also Chairman of the Board at HOFOR and The Green Council. In a political capacity, she has represented Enhedslisten (Ø) as a member of Folketinget (The Danish Parliament) between 2001 and 2011, and served on the board for several periods over the years, most recently from 2018 to 2021.</t>
-  </si>
-  <si>
-    <t>Morten Dreyer, DF-kandidat i Dragør, tidligere medlem af HOFORs bestyrelse
-Forhistorisk
-Min fars kone nummer to (enke) er gået bort, og jeg var forbi hjemmet og kunne tage nogle effekter med hjem.</t>
   </si>
   <si>
     <t>Det oplyser områdechef for vand og spildevand i HOFOR, der står for vandforsyningen i blandt andet Københavns Kommune, Thomas Jensen, over for Ekstra Bladet:
@@ -363,9 +343,6 @@
     <t>Copenhagen</t>
   </si>
   <si>
-    <t>København K</t>
-  </si>
-  <si>
     <t>København</t>
   </si>
   <si>
@@ -375,9 +352,6 @@
     <t>København K.</t>
   </si>
   <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
     <t>Midtjylland</t>
   </si>
   <si>
@@ -385,74 +359,6 @@
   </si>
   <si>
     <t>Hofor</t>
-  </si>
-  <si>
-    <t>Når børn reagerer i skolen
-Mange skoler oplever stigende uro, konflikter og i nogle tilfælde vold. Det hørte vi i dag vores statsminister adressere fra talerstolen.
-Det skaber forståeligt nok bekymring – både hos lærere, forældre og politikere. Men i debatten om børns adfærd risikerer vi at overse et afgørende perspektiv: Bag uro og udadreagerende handlinger gemmer sig ofte andre problemer, som ikke udelukkende kan håndteres med disciplin.
-Børns adfærd er sjældent vilkårlig. Når et barn ikke kan sidde stille, afviser undervisningen eller reagerer med vrede, er det ofte et signal om, at der er noget andet i vejen.
-Noget derhjemme eller i skolerammen. Det kan handle om mange forskellige ting, som vi ikke må overse og afvise ved at forklare det med »dårlig opdragelse«.
-Hvis vi kun ser adfærden som »pisse dårlig opførsel/opdragelse«, overser vi det egentlige budskab fra det reagerende barn. Vi risikerer at placere skyld, hvor der i virkeligheden er brug for forståelse, støtte og professionel handling.
-Sanktioner og straf kan i nogle tilfælde være nødvendigt for at beskytte fællesskabet. Men hvis konsekvensen bliver en udstødelse, frem for at se bag om adfærden, forstærker vi problemet: Barnet mister tilhørsforhold, relationer svækkes, og mistrivslen vokser.
-Erfaring med børn med skolevægring viser, at børn, der presses yderligere ud, sjældent finder tilbage på egen hånd.
-Forskning og praksis peger på de samme løsninger:
-Trygge og forudsigelige rammer, hvor barnet ved, hvad der skal ske.
-Relationer til voksne, der kan rumme og regulere barnets følelser. Ikke afvise dem.
-Tidlig indsats, så mistrivsel opdages, før den bliver til skolefravær eller konflikt.
-Et tæt samarbejde med forældrene, der ofte står alene med et stort ansvar.
-Når vi skaber rammer, hvor børn føler sig set og trygge, mindskes uro og konflikter typisk tilsvarende.
-Uro i skolen er ikke kun et disciplinproblem. Det er et trivselsproblem. Og løsningen ligger ikke i at hæve stemmen, bortvise eller stramme reglerne alene, men i at skabe rammer, hvor børn kan trives og udvikle sig.
-Hvis vi vil have børn, der kan være en del af fællesskabet, må vi forstå deres adfærd som et signal. Ikke et karakterbrist.
-Monica Lindberg, chef for Center for Skolevægring, en del af Behandlingsskolerne
-Tiderne skifter
-Vi holder for rødt ud for en frimærkebutik. Talen falder på filatelisternes og dermed frimærkehandlernes trange kår. Mit opvakte barnebarn spø’r: »Hvad er en filatelist?« Der svares: »Det er én, der samler på frimærker!« Hvortil næste spørgsmål lyder: »Hvad er et frimærke?«
-Niels Albertsen, Ebeltoft
-Grønland er ikke til salg
-USAs nye ambassadør i Danmark, Ken Howery, er udpeget af Donald Trump og har en klar opgave. Han er ikke sendt hertil for at udforske dansk kultur eller styrke relationerne mellem to allierede lande. Han er sendt hertil for at videreføre Trumps gamle drøm om, at USA skal eje eller kontrollere Grønland.
-Trump sagde det dengang uden omsvøb: af hensyn til national sikkerhed og verdensfrihed er amerikansk ejerskab af Grønland en nødvendighed. Ken Howery fik endda et klart mandat: »Get Greenland.«
-Det er et opsigtsvækkende udgangspunkt for en diplomatisk udsendelse, og det siger alt om, hvad denne udnævnelse handler om. Ikke om samarbejde eller partnerskab, men om strategisk kontrol.
-Men lad os lige få én ting på det rene: Man kan ikke bare overtage et andet land – slet ikke ét, der tilhører en allieret. Og hvis det virkelig handler om sikkerhed, er der allerede et solidt grundlag at bygge på.
-Den dansk-amerikanske forsvarsaftale fra 1951 giver USA fuld adgang til militær tilstedeværelse på Grønland. Den aftale fungerer, og den kan udvides i morgen, hvis det er nødvendigt.
-Så hvad er det egentlig, amerikanerne vil? Hvilke trusler ser Trump og hans kreds, som ikke kan håndteres gennem den eksisterende aftale og det samarbejde, der allerede fungerer?
-Er det Rusland, Kina eller er det snarere Trumps gamle forestilling om at tilføje endnu en stjerne på det amerikanske flag?
-Hvis USA virkelig ønsker Grønland som en del af Unionen, følger der også et ansvar med. Så må amerikanerne være klar til at indføre samme sociale, sundhedsmæssige og velfærdsmæssige standarder, som Danmark og Grønland tilbyder deres borgere i dag.
-Det er ikke småting, og det er næppe realistisk i et land, hvor store dele af befolkningen kæmper med ulighed, gæld og manglende adgang til basal sundhed.
-Derfor bør Danmark og Grønland stå fast. Grønland er ikke til salg. Punktum. Hvis amerikanerne ønsker tættere samarbejde, kan det ske inden for de aftaler, vi allerede har. Men ideen om ejerskab, overtagelse eller »køb« hører fortiden til – ikke fremtiden.
-Henrik Busch, København
-Et europæisk monsterbureaukrati
-I den forgangne uge har jeres journalister kastet lys over Europa-Parlamentets arbejde i forbindelse med Draghi-rapporten fra 2024 om Europas fremtid og en række forslag, som Europa-Kommissionen har fremlagt for at gennemføre nødvendige reformer i EU-politik.
-Den første pakke er blevet vedtaget ved hjælp af en såkaldt hurtig beslutningsproces. Det tog kun otte måneder!
-Er vi ikke selv ude om det? Ved det sidste europaparlamentsvalg i 2024 var dansk deltagelse på 58 procent. Klassens dukse var Belgien og Luxembourg med over 80 procent af stemmerne. Men EU-gennemsnittet var knap 51 procent.
-I vores iver efter at skabe mere demokrati og inddragelsen af EU-borgere har vi skabt et europaparlament, som er et monsterbureaukrati med 720 medlemmer delt op i politiske grupperinger, som slås politisk.
-EU-borgere skal være supermotiverede for at følge med i arbejdsprocesserne og beslutningerne i Europa-Parlamentets komiteer og udvalg, før de endelige beslutninger træffes på plenarmøderne. Jeg håber, at der arbejdes konstruktivt og fremadrettet på at forbedre Europas beslutningsprocedurer og regler. Imens haster resten af verden videre.
-Sally Clink, Greve
-Rent vand i hanen
-De fleste herhjemme tager det for givet at kunne åbne hanen for rent drikkevand.
-Men i Region Hovedstaden truer nu tre alvorlige forureninger drikkevandet for cirka 100.000 borgere, og det viser med tydelighed, at rent drikkevand ikke er en selvfølge.
-Da man i midten af 1990erne planlagde Øresundsbroen, forsøgte jeg som byrådsmedlem i Dragør at formå de ansvarlige til at indbygge et større vandrør i broforbindelsen, så man ville være beredt til at importere vand fra Skåne. Hvor der er rigeligt med vandressourcer.
-Men det havde ingen interesse dengang, hvilket man bare kan beklage i dag.
-Morten Dreyer, DF-kandidat i Dragør, tidligere medlem af HOFORs bestyrelse
-Forhistorisk
-Min fars kone nummer to (enke) er gået bort, og jeg var forbi hjemmet og kunne tage nogle effekter med hjem. Der var en bog med Bo Bojesen-tegninger anno 1981 og deromkring, det er spændende tegninger og læsning. Et par eksempler: 19. november 1980: »Bistandskontorerne landet over sikres nu på forskellig vis mod særligt voldsomme klienter.«
-Og fra 1981: 30. august: »De Konservative vil bekæmpe en påstået marxisme i folkeskolens historieundervisning.« 21. juni: »Den stigende voldsmentalitet foreslås nu taget op i skoleundervisningen.« Tegningen er en skolelærer, der er overfaldet.
-23. februar: »Beboerne på den jyske vestkyst har besvær med at overbevise myndighederne om nødvendigheden af udvidet kystsikring.« 15. februar: »USA er kommet i klemme på spørgsmålet om våbenhjælp til lande, der undertrykker menneskerettighederne.«
-En sidste: 18. januar: »På tirsdag flytter Ronald Reagan ind i Det Hvide Hus.«
-Tænk bare, hvilke problemer man kæmpede med i 1981, altså for 34 år siden, godt vi er kommet videre.
-Lars Juul, Frederiksberg
-Sms’er
-Sólbjørg Jakobsens indlæg i Opinion 10. oktober er jeg helt enig i. Ligeledes i Ole Borgs læserbrev 14. oktober.
-Hvis man har rent mel i posen, kan en eventuel gendannelse af slettede sms’er kun bekræfte, at der ikke er foregået noget fordækt. Det burde alle – inklusive statsministeren, Troels Lund Poulsen og Sophie Løhde – have en stor interesse i.
-Benægtelser øger i mine øjne kun mistilliden til politikerne.
-Aldrig har jeg følt større politikerlede end under vores nuværende regering.
-Lena G. Pedersen, Frederiksberg
-Nej til fast track hos lægen
-I Danmark skal adgangen til lægen ikke afhænge af pengepungen. Derfor er det dybt problematisk, når en praktiserende læge i samarbejde med en privat virksomhed tilbyder konsultationer mod betaling.
-At man kan købe sig til en hurtigere tid hos lægen for 750 kroner, hører ganske enkelt ikke hjemme i et offentligt sundhedsvæsen.
-Det strider mod en af de mest grundlæggende værdier i vores samfund; lige adgang til sundhed. Når en læge både driver offentlig praksis og samtidig tilbyder den samme ydelse privat, opstår der et A- og et B-hold blandt patienterne: et »fast track« for dem, der har råd, og en langsommere kø for resten.
-Som socialdemokrat mener jeg, at vi skal stå fast på princippet om, at man får hjælp efter behov – ikke efter pengepung. Det er kernen i den danske velfærdsmodel, og det er dét, der gør vores sundhedsvæsen unikt.
-Ja, vi mangler læger – især i de områder, hvor borgerne har størst behov. Men løsningen er ikke at åbne for betaling. Løsningen er at styrke det fælles sundhedsvæsen, sikre bedre lægedækning og skabe rammer, der gør det attraktivt at være praktiserende læge i hele landet.
-For hvis vi først begynder at sælge hurtigere adgang til sundhed, risikerer vi at miste noget af det mest værdifulde, som vi har: tilliden til, at vi alle bliver behandlet lige, når vi har brug for hjælp.
-Michael Schmidt, kandidat til regionsrådet Region Øst for Socialdemokratiet, Frederiksværk</t>
   </si>
   <si>
     <t>Friske, badeglade danskere har søndag kunnet se røde flag vejre i vinden på badestrandene langs den københavnske og nordsjællandske kyst.
@@ -717,24 +623,10 @@
 Der er derfor også risiko for den første alvorlige glatføresituation denne vintersæson.</t>
   </si>
   <si>
-    <t>Når børn reagerer i skolen: Adfærd er et signal - ikke et karakterbrist</t>
-  </si>
-  <si>
     <t>Hofor-direktør opfordrer til at genbesøge 'prepping'-anbefalinger</t>
   </si>
   <si>
     <t>Hofor kommer med advarsel efter skybrud</t>
-  </si>
-  <si>
-    <t>It seems there was no news article provided. Please share a news article or text for me to analyze, and I will extract the key topics and assess their sentiment accordingly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Topic 1:** Uro og konflikter i skolen  
-**Sentiment 1:** Negative  
-**Topic 2:** Børns adfærd som signal  
-**Sentiment 2:** Positive  
-**Topic 3:** Behov for forståelse og støtte  
-**Sentiment 3:** Positive  </t>
   </si>
   <si>
     <t>Topic 1: Badevandskvalitet
@@ -852,12 +744,6 @@
 Sentiment 3: Negative  </t>
   </si>
   <si>
-    <t>Parsing Error</t>
-  </si>
-  <si>
-    <t>The Nurturer</t>
-  </si>
-  <si>
     <t>The Guardian</t>
   </si>
   <si>
@@ -906,11 +792,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,13 +873,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,7 +925,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1065,6 +959,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1099,9 +994,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1274,14 +1170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,462 +1328,459 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3">
-        <v>45949.875</v>
+        <v>45935.677002314813</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2">
-        <v>95158</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>1634874</v>
       </c>
       <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" t="s">
-        <v>117</v>
-      </c>
       <c r="O2">
-        <v>880.21</v>
+        <v>15122.58</v>
       </c>
       <c r="P2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T2" s="3">
-        <v>45949</v>
+        <v>45935</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V2">
-        <v>95158</v>
+        <v>1634874</v>
       </c>
       <c r="W2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X2">
-        <v>880.21</v>
+        <v>15122.58</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45935.778657407413</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>109</v>
       </c>
       <c r="AD2" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>100</v>
       </c>
       <c r="AK2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AM2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AN2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT2">
-        <v>21178</v>
+        <v>30853</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>0.3648160955009688</v>
+        <v>0.53565821804866764</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
       <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45935.615231481483</v>
+      </c>
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="3">
-        <v>45948.68060185185</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
       <c r="G3">
-        <v>728754</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
+        <v>1634874</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O3">
-        <v>6740.97</v>
+        <v>15122.58</v>
       </c>
       <c r="P3">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
         <v>50</v>
       </c>
       <c r="S3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="3">
+        <v>45935</v>
+      </c>
+      <c r="U3" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="3">
-        <v>45948</v>
-      </c>
-      <c r="U3" t="s">
-        <v>94</v>
-      </c>
       <c r="V3">
-        <v>728754</v>
+        <v>1634874</v>
       </c>
       <c r="W3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X3">
-        <v>6740.97</v>
+        <v>15122.58</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="3">
-        <v>45948.83174768519</v>
+        <v>45935.778657407413</v>
       </c>
       <c r="AB3" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AD3" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>100</v>
       </c>
       <c r="AK3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AM3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AN3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="b">
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT3">
-        <v>37512</v>
+        <v>30853</v>
       </c>
       <c r="AU3">
-        <v>0.8498</v>
+        <v>0.69959999999999989</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW3">
-        <v>0.3570571806334127</v>
+        <v>0.53565821804866764</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3">
-        <v>45935.67700231481</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
+        <v>45933.390277777777</v>
       </c>
       <c r="G4">
-        <v>1634874</v>
+        <v>3122304</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O4">
-        <v>15122.58</v>
+        <v>28881.31</v>
       </c>
       <c r="P4">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
         <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="T4" s="3">
-        <v>45935</v>
-      </c>
-      <c r="U4" t="s">
-        <v>95</v>
+        <v>45933</v>
       </c>
       <c r="V4">
-        <v>1634874</v>
+        <v>3122304</v>
       </c>
       <c r="W4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X4">
-        <v>15122.58</v>
+        <v>28881.31</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA4" s="3">
-        <v>45935.77865740741</v>
+        <v>45933.556944444441</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AK4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AM4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="AN4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="AO4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT4">
-        <v>30853</v>
+        <v>21206</v>
       </c>
       <c r="AU4">
-        <v>0.762</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="AV4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW4">
-        <v>0.5356582180486676</v>
+        <v>0.6147981638415243</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45931.626550925917</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>303692</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5">
+        <v>2809.15</v>
+      </c>
+      <c r="P5">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45935.61523148148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5">
-        <v>1634874</v>
-      </c>
-      <c r="K5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5">
-        <v>15122.58</v>
-      </c>
-      <c r="P5">
-        <v>79</v>
       </c>
       <c r="R5" t="s">
         <v>52</v>
       </c>
       <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45931</v>
+      </c>
+      <c r="U5" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="3">
-        <v>45935</v>
-      </c>
-      <c r="U5" t="s">
-        <v>95</v>
-      </c>
       <c r="V5">
-        <v>1634874</v>
+        <v>303692</v>
       </c>
       <c r="W5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X5">
-        <v>15122.58</v>
+        <v>2809.15</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AA5" s="3">
-        <v>45935.77865740741</v>
+        <v>45931.793217592603</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AD5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AF5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AM5" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="AN5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="AO5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="b">
         <v>1</v>
@@ -1897,158 +1792,176 @@
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT5">
-        <v>30853</v>
+        <v>14688</v>
       </c>
       <c r="AU5">
-        <v>0.6995999999999999</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="AV5">
         <v>2</v>
       </c>
       <c r="AW5">
-        <v>0.5356582180486676</v>
+        <v>0.49478241675446349</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45883.083333333343</v>
+      </c>
+      <c r="F6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="3">
-        <v>45933.39027777778</v>
-      </c>
       <c r="G6">
-        <v>3122304</v>
+        <v>935122</v>
       </c>
       <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s">
-        <v>117</v>
-      </c>
       <c r="O6">
-        <v>28881.31</v>
+        <v>8649.8799999999992</v>
       </c>
       <c r="P6">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
         <v>53</v>
       </c>
       <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="3">
+        <v>45883</v>
+      </c>
+      <c r="U6" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="3">
-        <v>45933</v>
-      </c>
       <c r="V6">
-        <v>3122304</v>
+        <v>935122</v>
       </c>
       <c r="W6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X6">
-        <v>28881.31</v>
+        <v>8649.8799999999992</v>
       </c>
       <c r="Y6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AA6" s="3">
-        <v>45933.55694444444</v>
+        <v>45883.25</v>
       </c>
       <c r="AB6" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>100</v>
       </c>
       <c r="AK6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="AL6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AM6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AO6">
         <v>1</v>
       </c>
       <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
         <v>0</v>
       </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>1</v>
-      </c>
       <c r="AS6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT6">
-        <v>21206</v>
+        <v>24461</v>
       </c>
       <c r="AU6">
-        <v>0.6513</v>
+        <v>0.57840000000000003</v>
       </c>
       <c r="AV6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>0.6147981638415243</v>
+        <v>0.48786018101153278</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45928.645821759259</v>
+      </c>
+      <c r="F7" t="s">
         <v>90</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45931.62655092592</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
       </c>
       <c r="G7">
         <v>303692</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O7">
         <v>2809.15</v>
@@ -2060,64 +1973,64 @@
         <v>54</v>
       </c>
       <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="3">
+        <v>45928</v>
+      </c>
+      <c r="U7" t="s">
         <v>90</v>
-      </c>
-      <c r="T7" s="3">
-        <v>45931</v>
-      </c>
-      <c r="U7" t="s">
-        <v>96</v>
       </c>
       <c r="V7">
         <v>303692</v>
       </c>
       <c r="W7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X7">
         <v>2809.15</v>
       </c>
       <c r="Y7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AA7" s="3">
-        <v>45931.7932175926</v>
+        <v>45928.812488425923</v>
       </c>
       <c r="AB7" t="s">
         <v>54</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AD7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AL7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="AM7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AN7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP7" t="b">
         <v>1</v>
@@ -2129,123 +2042,129 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT7">
         <v>14688</v>
       </c>
       <c r="AU7">
-        <v>0.6118</v>
+        <v>0.5494</v>
       </c>
       <c r="AV7">
         <v>2</v>
       </c>
       <c r="AW7">
-        <v>0.4947824167544635</v>
+        <v>0.57553429362225217</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45872.316064814811</v>
+      </c>
+      <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="3">
-        <v>45883.08333333334</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
       <c r="G8">
-        <v>935122</v>
+        <v>1634874</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O8">
-        <v>8649.879999999999</v>
+        <v>15122.58</v>
       </c>
       <c r="P8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
         <v>55</v>
       </c>
       <c r="S8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="3">
+        <v>45872</v>
+      </c>
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="3">
-        <v>45883</v>
-      </c>
-      <c r="U8" t="s">
-        <v>97</v>
-      </c>
       <c r="V8">
-        <v>935122</v>
+        <v>1634874</v>
       </c>
       <c r="W8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X8">
-        <v>8649.879999999999</v>
+        <v>15122.58</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AA8" s="3">
-        <v>45883.25</v>
+        <v>45872.475393518522</v>
       </c>
       <c r="AB8" t="s">
         <v>55</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AD8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="AL8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AM8" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="AN8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="AO8">
         <v>1</v>
       </c>
       <c r="AP8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="b">
         <v>1</v>
@@ -2254,120 +2173,117 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT8">
-        <v>24461</v>
+        <v>30853</v>
       </c>
       <c r="AU8">
-        <v>0.5784</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="AV8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.4878601810115328</v>
+        <v>0.35970945627604112</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3">
-        <v>45928.64582175926</v>
+        <v>45872.266134259262</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G9">
-        <v>303692</v>
+        <v>1173924</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O9">
-        <v>2809.15</v>
+        <v>10858.8</v>
       </c>
       <c r="P9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
         <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T9" s="3">
-        <v>45928</v>
+        <v>45872</v>
       </c>
       <c r="U9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="V9">
-        <v>303692</v>
+        <v>1173924</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X9">
-        <v>2809.15</v>
+        <v>10858.8</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="3">
-        <v>45928.81248842592</v>
+        <v>45872.432800925933</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AD9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AH9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AM9" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="AN9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="b">
         <v>1</v>
@@ -2379,129 +2295,123 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT9">
-        <v>14688</v>
+        <v>40186</v>
       </c>
       <c r="AU9">
-        <v>0.5494</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="AV9">
         <v>2</v>
       </c>
       <c r="AW9">
-        <v>0.5755342936222522</v>
+        <v>0.48112266312789542</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
-        <v>45872.31606481481</v>
+        <v>45871.535590277781</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>1634874</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>1173924</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O10">
-        <v>15122.58</v>
+        <v>10858.8</v>
       </c>
       <c r="P10">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
         <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T10" s="3">
-        <v>45872</v>
+        <v>45871</v>
       </c>
       <c r="U10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="V10">
-        <v>1634874</v>
+        <v>1173924</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X10">
-        <v>15122.58</v>
+        <v>10858.8</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AA10" s="3">
-        <v>45872.47539351852</v>
+        <v>45871.702256944453</v>
       </c>
       <c r="AB10" t="s">
         <v>57</v>
       </c>
       <c r="AC10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AD10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM10" t="s">
         <v>145</v>
       </c>
-      <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>162</v>
-      </c>
       <c r="AN10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="b">
         <v>1</v>
@@ -2510,48 +2420,51 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT10">
-        <v>30853</v>
+        <v>40186</v>
       </c>
       <c r="AU10">
-        <v>0.5239</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>0.3597094562760411</v>
+        <v>0.53207142490052195</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
-        <v>45872.26613425926</v>
+        <v>45871.683009259257</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11">
         <v>1173924</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O11">
         <v>10858.8</v>
@@ -2563,61 +2476,61 @@
         <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="T11" s="3">
-        <v>45872</v>
+        <v>45871</v>
       </c>
       <c r="U11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V11">
         <v>1173924</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X11">
         <v>10858.8</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AA11" s="3">
-        <v>45872.43280092593</v>
+        <v>45871.849675925929</v>
       </c>
       <c r="AB11" t="s">
         <v>58</v>
       </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AD11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2632,120 +2545,120 @@
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT11">
         <v>40186</v>
       </c>
       <c r="AU11">
-        <v>0.5011</v>
+        <v>0.46160000000000001</v>
       </c>
       <c r="AV11">
         <v>2</v>
       </c>
       <c r="AW11">
-        <v>0.4811226631278954</v>
+        <v>0.48112266312789542</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
-        <v>45871.53559027778</v>
+        <v>45871.508356481478</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G12">
-        <v>1173924</v>
+        <v>1634874</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O12">
-        <v>10858.8</v>
+        <v>15122.58</v>
       </c>
       <c r="P12">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
         <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="T12" s="3">
         <v>45871</v>
       </c>
       <c r="U12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="V12">
-        <v>1173924</v>
+        <v>1634874</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X12">
-        <v>10858.8</v>
+        <v>15122.58</v>
       </c>
       <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" t="s">
-        <v>127</v>
-      </c>
       <c r="AA12" s="3">
-        <v>45871.70225694445</v>
+        <v>45871.672766203701</v>
       </c>
       <c r="AB12" t="s">
         <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AD12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AN12" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="b">
         <v>1</v>
@@ -2757,51 +2670,48 @@
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT12">
-        <v>40186</v>
+        <v>30853</v>
       </c>
       <c r="AU12">
-        <v>0.4804</v>
+        <v>0.44419999999999998</v>
       </c>
       <c r="AV12">
         <v>2</v>
       </c>
       <c r="AW12">
-        <v>0.5320714249005219</v>
+        <v>0.58660697982129417</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3">
-        <v>45871.68300925926</v>
+        <v>45871.478298611109</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1173924</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O13">
         <v>10858.8</v>
@@ -2813,67 +2723,67 @@
         <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="T13" s="3">
         <v>45871</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V13">
         <v>1173924</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X13">
         <v>10858.8</v>
       </c>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="3">
-        <v>45871.84967592593</v>
+        <v>45871.644965277781</v>
       </c>
       <c r="AB13" t="s">
         <v>60</v>
       </c>
       <c r="AC13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AD13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AN13" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="b">
         <v>1</v>
@@ -2882,123 +2792,123 @@
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT13">
         <v>40186</v>
       </c>
       <c r="AU13">
-        <v>0.4616</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>0.4811226631278954</v>
+        <v>0.40707142490052189</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" s="3">
-        <v>45871.50835648148</v>
+        <v>45871.476388888892</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G14">
-        <v>1634874</v>
+        <v>935122</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O14">
-        <v>15122.58</v>
+        <v>8649.8799999999992</v>
       </c>
       <c r="P14">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T14" s="3">
         <v>45871</v>
       </c>
       <c r="U14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="V14">
-        <v>1634874</v>
+        <v>935122</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X14">
-        <v>15122.58</v>
+        <v>8649.8799999999992</v>
       </c>
       <c r="Y14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AA14" s="3">
-        <v>45871.6727662037</v>
+        <v>45860.625</v>
       </c>
       <c r="AB14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL14" t="s">
         <v>149</v>
       </c>
-      <c r="AF14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>164</v>
-      </c>
       <c r="AM14" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AN14" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AO14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="b">
         <v>1</v>
@@ -3007,525 +2917,276 @@
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT14">
-        <v>30853</v>
+        <v>24461</v>
       </c>
       <c r="AU14">
-        <v>0.4442</v>
+        <v>0.41320000000000001</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>0.5866069798212942</v>
+        <v>0.41380894278415942</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
-        <v>45871.47829861111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
+        <v>45871.480173611111</v>
       </c>
       <c r="G15">
-        <v>1173924</v>
+        <v>3122304</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O15">
-        <v>10858.8</v>
+        <v>28881.31</v>
       </c>
       <c r="P15">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="T15" s="3">
         <v>45871</v>
       </c>
-      <c r="U15" t="s">
-        <v>104</v>
-      </c>
       <c r="V15">
-        <v>1173924</v>
+        <v>3122304</v>
       </c>
       <c r="W15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X15">
-        <v>10858.8</v>
+        <v>28881.31</v>
       </c>
       <c r="Y15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AA15" s="3">
-        <v>45871.64496527778</v>
+        <v>45871.646840277783</v>
       </c>
       <c r="AB15" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AC15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL15" t="s">
         <v>150</v>
       </c>
-      <c r="AF15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>161</v>
-      </c>
       <c r="AM15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AN15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="b">
         <v>0</v>
       </c>
       <c r="AQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT15">
-        <v>40186</v>
+        <v>21206</v>
       </c>
       <c r="AU15">
-        <v>0.4282</v>
+        <v>0.3992</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW15">
-        <v>0.4070714249005219</v>
+        <v>0.6147981638415243</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E16" s="3">
-        <v>45871.47638888889</v>
+        <v>45870.958333333343</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>935122</v>
+        <v>3122304</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O16">
-        <v>8649.879999999999</v>
+        <v>28881.31</v>
       </c>
       <c r="P16">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
         <v>62</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="T16" s="3">
-        <v>45871</v>
+        <v>45870</v>
       </c>
       <c r="U16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="V16">
-        <v>935122</v>
+        <v>3122304</v>
       </c>
       <c r="W16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X16">
-        <v>8649.879999999999</v>
+        <v>28881.31</v>
       </c>
       <c r="Y16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AA16" s="3">
-        <v>45860.625</v>
+        <v>45872.365358796298</v>
       </c>
       <c r="AB16" t="s">
         <v>62</v>
       </c>
       <c r="AC16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AD16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL16" t="s">
         <v>151</v>
       </c>
-      <c r="AF16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>165</v>
-      </c>
       <c r="AM16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AN16" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="b">
         <v>0</v>
       </c>
       <c r="AQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="b">
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AT16">
-        <v>24461</v>
+        <v>723440</v>
       </c>
       <c r="AU16">
-        <v>0.4132</v>
+        <v>0.3861</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>0.4138089427841594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45871.48017361111</v>
-      </c>
-      <c r="G17">
-        <v>3122304</v>
-      </c>
-      <c r="K17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>117</v>
-      </c>
-      <c r="O17">
-        <v>28881.31</v>
-      </c>
-      <c r="P17">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="3">
-        <v>45871</v>
-      </c>
-      <c r="V17">
-        <v>3122304</v>
-      </c>
-      <c r="W17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X17">
-        <v>28881.31</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>45871.64684027778</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT17">
-        <v>21206</v>
-      </c>
-      <c r="AU17">
-        <v>0.3992</v>
-      </c>
-      <c r="AV17">
-        <v>3</v>
-      </c>
-      <c r="AW17">
-        <v>0.6147981638415243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45870.95833333334</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18">
-        <v>3122304</v>
-      </c>
-      <c r="K18" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18">
-        <v>28881.31</v>
-      </c>
-      <c r="P18">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" t="s">
-        <v>89</v>
-      </c>
-      <c r="T18" s="3">
-        <v>45870</v>
-      </c>
-      <c r="U18" t="s">
-        <v>106</v>
-      </c>
-      <c r="V18">
-        <v>3122304</v>
-      </c>
-      <c r="W18" t="s">
-        <v>117</v>
-      </c>
-      <c r="X18">
-        <v>28881.31</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>45872.3653587963</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT18">
-        <v>723440</v>
-      </c>
-      <c r="AU18">
-        <v>0.3861</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0.3168936713177145</v>
+        <v>0.31689367131771451</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/agility/hofor_agility.xlsx
+++ b/data/agility/hofor_agility.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Gijos\EB Scraping\Dashboard\data\agility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173205D7-2FDF-4FC5-B013-5A6C7FB3D3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E80D1CE-6588-4F6C-AA82-8B21CBD21D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1348,7 @@
         <v>1634874</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>102</v>
@@ -1473,7 +1473,7 @@
         <v>1634874</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -1705,7 +1705,7 @@
         <v>303692</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>103</v>
@@ -1827,7 +1827,7 @@
         <v>935122</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
@@ -2208,7 +2208,7 @@
         <v>1173924</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -2333,7 +2333,7 @@
         <v>1173924</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -2458,7 +2458,7 @@
         <v>1173924</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -2583,7 +2583,7 @@
         <v>1634874</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
         <v>102</v>
@@ -2705,7 +2705,7 @@
         <v>1173924</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
         <v>105</v>
@@ -2827,7 +2827,7 @@
         <v>935122</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
         <v>104</v>
